--- a/biology/Botanique/Pédoncule/Pédoncule.xlsx
+++ b/biology/Botanique/Pédoncule/Pédoncule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>P%C3%A9doncule</t>
+          <t>Pédoncule</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique, on appelle pédoncule la pièce florale en forme de tige (parfois on parle improprement de « queue »), qui porte les fleurs, puis, après la fécondation, les fruits. Une fleur sans pédoncule, ou à pédoncule très court, est dite sessile.
 Anatomiquement, le pédoncule a la structure d'une tige (comme le pétiole, qui porte la feuille). Il est généralement vert et dépourvu de feuilles. Cependant le pédoncule floral peut porter des feuilles, souvent réduites, et parfois transformées en bractées, vertes ou colorées qui annoncent la fleur ou l'inflorescence. Ainsi chez Euphorbia pulcherrima, l'élément décoratif est constitué de bractées rouge vif, alors que l'inflorescence est insignifiante. Chez certaines plantes, le pédoncule est coloré.
